--- a/uploads/Student_Upload_Template.xlsx
+++ b/uploads/Student_Upload_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -39,46 +39,43 @@
     <t>Category</t>
   </si>
   <si>
-    <t>select_parent</t>
-  </si>
-  <si>
-    <t>course_major</t>
-  </si>
-  <si>
-    <t>select_class</t>
-  </si>
-  <si>
-    <t>select_section</t>
-  </si>
-  <si>
-    <t>previous_school</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>place_of_birth</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>card_id</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>icard_type</t>
-  </si>
-  <si>
-    <t>location</t>
+    <t>Select Parent</t>
+  </si>
+  <si>
+    <t>Course Major</t>
+  </si>
+  <si>
+    <t>Select Class</t>
+  </si>
+  <si>
+    <t>Select Section</t>
+  </si>
+  <si>
+    <t>Previous School</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Place Of Birth</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Card Id</t>
+  </si>
+  <si>
+    <t>Icard Type</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,9 +482,6 @@
       </c>
       <c r="T1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
